--- a/Empleados_sin_curp.xlsx
+++ b/Empleados_sin_curp.xlsx
@@ -12,12 +12,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>EMPLEADO ID</t>
   </si>
   <si>
-    <t>208456</t>
+    <t>187348_ FECHA ERRONEA EN 122</t>
+  </si>
+  <si>
+    <t>202031_DUPLICADO EN 127</t>
+  </si>
+  <si>
+    <t>0003_ CURP ERRONEO EN 129</t>
+  </si>
+  <si>
+    <t>0015_ CURP ERRONEO EN 143</t>
   </si>
 </sst>
 </file>
@@ -83,7 +92,17 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Empleados_sin_curp.xlsx
+++ b/Empleados_sin_curp.xlsx
@@ -12,21 +12,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>EMPLEADO ID</t>
   </si>
   <si>
-    <t>187348_ FECHA ERRONEA EN 122</t>
+    <t>208456_ CURP ERRONEO EN 109</t>
   </si>
   <si>
-    <t>202031_DUPLICADO EN 127</t>
-  </si>
-  <si>
-    <t>0003_ CURP ERRONEO EN 129</t>
-  </si>
-  <si>
-    <t>0015_ CURP ERRONEO EN 143</t>
+    <t>208456_ CURP ERRONEO EN 112</t>
   </si>
 </sst>
 </file>
@@ -95,16 +89,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
